--- a/biology/Histoire de la zoologie et de la botanique/Ange_Paulin_Terver/Ange_Paulin_Terver.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ange_Paulin_Terver/Ange_Paulin_Terver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ange Paulin Terver, né le 4 octobre 1798 à Lyon (Rhône) et mort le 15 août 1875 à Fontaines-sur-Saône (Rhône), est un malacologiste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès son plus jeune âge, son père lui communiqua sa passion pour l'entomologie. La fortune de son père ayant péri dans un naufrage, il abandonne ses études à Colmar pour trouver du travail à Lyon. Alors âgé de 14 ans, il consacre ses rares heures de loisir à ses études et à ses collections. Il parcourt les environs lyonnais à la recherche d'insectes et de mollusques et ne tarde pas à faire de la malacologie son domaine de prédilection et à se faire une réputation. C'est ainsi qu'il côtoie d'autres savants lyonnais, comme le botaniste Nicolas Charles Seringe (1776-1858), directeur du Jardin des plantes à Lyon ou encore le malacologiste Gaspard Louis André Michaud (1795-1880).
 Il réalise les 3 belles lithographies qui ornent le supplément au Catalogue des Mollusques de Draparnaud que Michaud rédigea en 1831. Il figura ainsi avec une précision de dessin inégalée 123 figures de coquilles nouvelles, dont beaucoup proviennent de sa propre collection.
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1831. Lithographies XIV-XVI in Complément de l'Histoire naturelle des Mollusques terrestres et fluviatiles de la France par Gaspard Louis André Michaud
 1839. Catalogue des Mollusques terrestres et fluviatiles observés dans les possessions françaises du nord de l'Afrique. Lyon, 39 p., 4 pl.
